--- a/DATA/Escore_.xlsx
+++ b/DATA/Escore_.xlsx
@@ -442,7 +442,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.5105626192963648</v>
+        <v>0.5105626192963649</v>
       </c>
     </row>
     <row r="3">
@@ -472,7 +472,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.3735300904478923</v>
+        <v>0.3735300904478922</v>
       </c>
     </row>
     <row r="9">
@@ -502,12 +502,12 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.5168326568271713</v>
+        <v>0.5168326568271712</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.5168326568271713</v>
+        <v>0.5168326568271712</v>
       </c>
     </row>
     <row r="16">
@@ -542,7 +542,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.6447259093761342</v>
+        <v>0.6447259093761341</v>
       </c>
     </row>
     <row r="23">
@@ -557,7 +557,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.6447259093761342</v>
+        <v>0.6447259093761341</v>
       </c>
     </row>
     <row r="26">
@@ -572,7 +572,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.50983912557813</v>
+        <v>0.5098391255781302</v>
       </c>
     </row>
     <row r="29">
@@ -582,7 +582,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.5010252616083229</v>
+        <v>0.5010252616083232</v>
       </c>
     </row>
     <row r="31">
@@ -592,22 +592,22 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.3999310135479249</v>
+        <v>0.3999310135479248</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.3999310135479249</v>
+        <v>0.3999310135479248</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.5180321500730394</v>
+        <v>0.5180321500730396</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.5335743856420487</v>
+        <v>0.533574385642049</v>
       </c>
     </row>
     <row r="36">
@@ -617,12 +617,12 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.5542262348591154</v>
+        <v>0.5542262348591153</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.5542262348591154</v>
+        <v>0.5542262348591153</v>
       </c>
     </row>
     <row r="39">
@@ -637,7 +637,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.3739502905573556</v>
+        <v>0.3739502905573555</v>
       </c>
     </row>
     <row r="42">
@@ -672,22 +672,22 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.5535913813342289</v>
+        <v>0.553591381334229</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.5612136689023088</v>
+        <v>0.5612136689023087</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.5535913813342289</v>
+        <v>0.553591381334229</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.5612136689023088</v>
+        <v>0.5612136689023087</v>
       </c>
     </row>
   </sheetData>
